--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>10730854485.83856</v>
+        <v>8905063759.177561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1159469874129759</v>
+        <v>0.1403077017514128</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0490496531276002</v>
+        <v>0.2058135739224087</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1008148605883052</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.858571170277244</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7723199176414873</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.587827182552502</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>10329439085.49358</v>
+        <v>7074691749.698903</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1407396314521694</v>
+        <v>0.2225190079931044</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1300443601429097</v>
+        <v>0.4451155344135603</v>
       </c>
       <c r="I3" t="n">
-        <v>1.479571146056031</v>
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9896350740351143</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5191299921553695</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.741044647236123</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8931714673746347</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.12238470025657</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>9819564249.254446</v>
+        <v>7215206420.696832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1512484762358741</v>
+        <v>0.1815187152848653</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1643755433349876</v>
+        <v>0.3257712389106014</v>
       </c>
       <c r="I4" t="n">
-        <v>1.511561873538324</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.73444063680167</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7840596638161191</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.946752639520712</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>7249591271.105945</v>
+        <v>13215873357.07891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.200168810313995</v>
+        <v>0.08146032130546633</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3241926293821509</v>
+        <v>0.03451969532761589</v>
       </c>
       <c r="I5" t="n">
-        <v>1.476905252099174</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.497593927084713</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2273076647912497</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.048559368740281</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>7442813337.336386</v>
+        <v>11452910049.15796</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1643538638626903</v>
+        <v>0.1175567130293656</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2071893323555544</v>
+        <v>0.139589638880041</v>
       </c>
       <c r="I6" t="n">
-        <v>1.244972477852553</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.810549272109728</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7910094449275592</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.009639626441455</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10381265891.65755</v>
+        <v>11800229357.46542</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1132912038160131</v>
+        <v>0.1358504679390675</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04037351459263713</v>
+        <v>0.1928393877864297</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0727466276602306</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.692653037630561</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5858516248691468</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.024379459752375</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>9695791726.832546</v>
+        <v>9956556020.474968</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1577719285952252</v>
+        <v>0.1210176890003096</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1856869093893185</v>
+        <v>0.1496639020552886</v>
       </c>
       <c r="I8" t="n">
-        <v>1.556882070804905</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.714774260649483</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7633673415770148</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.552572570890813</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>3722542074.493204</v>
+        <v>7909829777.91011</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.31242337540492</v>
+        <v>0.1685585590885205</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6909153394044194</v>
+        <v>0.2880466128483523</v>
       </c>
       <c r="I9" t="n">
-        <v>1.183656916844825</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.019989481963627</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7885437684818928</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.750885887674229</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>9867051116.441114</v>
+        <v>7800826181.897033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1468040099221112</v>
+        <v>0.1752790727696345</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.149855984777475</v>
+        <v>0.3076087895478708</v>
       </c>
       <c r="I10" t="n">
-        <v>1.474239358142316</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.693728423393452</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7949176232050658</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.204624040707863</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>10666199747.17226</v>
+        <v>7903892312.135923</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1009327891393944</v>
+        <v>0.1918835366305935</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.3559413235566408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07574790656123612</v>
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4385286486512144</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.825247848675501</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5838972967379179</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.852698086082858</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>3843535965.644784</v>
+        <v>9392786749.272429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3298485486624863</v>
+        <v>0.1355320389977564</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7478413695791948</v>
+        <v>0.1919124998264105</v>
       </c>
       <c r="I12" t="n">
-        <v>1.290292675119134</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.766202259277408</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7769630951785097</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.773059644292786</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>5916085898.591721</v>
+        <v>3888819703.538723</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2094241853883372</v>
+        <v>0.3684424682111604</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3544288716836207</v>
+        <v>0.8698718326430683</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07417723614270674</v>
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9899378876143131</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2293307030039885</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.616049903028275</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8763427207344221</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.91080451166017</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>5655196037.775845</v>
+        <v>7885839380.061533</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2450237446666784</v>
+        <v>0.2042807077802072</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4707285236717348</v>
+        <v>0.3920272039089762</v>
       </c>
       <c r="I14" t="n">
-        <v>1.410257903177731</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.671195113635077</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5888042493166367</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.104889872697656</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>9125652332.059523</v>
+        <v>9627871162.894537</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1610271503372473</v>
+        <v>0.1020237218987347</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1963213431692793</v>
+        <v>0.09437596451116689</v>
       </c>
       <c r="I15" t="n">
-        <v>1.495566509797178</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.190807997109383</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6944514819902204</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.698221642695026</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>10986571636.21143</v>
+        <v>8966890257.68284</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1423351962541107</v>
+        <v>0.1486880592586324</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1352568862233423</v>
+        <v>0.2302072500817273</v>
       </c>
       <c r="I16" t="n">
-        <v>1.591538692244056</v>
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4056425542434706</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.000279873739542</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5758538478332248</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.516797082924954</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8006984127.105387</v>
+        <v>14583936466.05717</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1449222018652226</v>
+        <v>0.09842512159462755</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1437083350154812</v>
+        <v>0.08390110226697363</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08469075769376253</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.01547517422336</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.807319215071518</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.130909127207</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>10616080016.9195</v>
+        <v>8465420110.683645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1149798925831944</v>
+        <v>0.1296479555237769</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04589026592104203</v>
+        <v>0.1747850173013512</v>
       </c>
       <c r="I18" t="n">
-        <v>1.242306583895695</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.766236445571765</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7407042337752251</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.047848229932736</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7340760417.438278</v>
+        <v>12514787449.51801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791277340800172</v>
+        <v>0.1046517973463817</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2554538614571277</v>
+        <v>0.102025807771067</v>
       </c>
       <c r="I19" t="n">
-        <v>1.338278766342573</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.106676090741631</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7840596638161191</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.574517185580751</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5058430108.092976</v>
+        <v>7481357694.569677</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3029285998334555</v>
+        <v>0.1978190871790854</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6598970033055681</v>
+        <v>0.3732186172499518</v>
       </c>
       <c r="I20" t="n">
-        <v>1.559547964761763</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.351330821379218</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.815193622123452</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.952541621089821</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>8394939848.707726</v>
+        <v>4060127540.656886</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1684908558597637</v>
+        <v>0.2432214308815115</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22070440780285</v>
+        <v>0.5053764718757161</v>
       </c>
       <c r="I21" t="n">
-        <v>1.439582736703166</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.378085115230301</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5676110244242843</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.974135373255385</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>7603148035.091602</v>
+        <v>13094156482.60999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1887936040933216</v>
+        <v>0.1208257715646794</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2870311433532431</v>
+        <v>0.1491052657715671</v>
       </c>
       <c r="I22" t="n">
-        <v>1.460909888358028</v>
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9898903876009439</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3715339049289301</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.52289351888442</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8838860574404669</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15.15482762992492</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7900952235.153464</v>
+        <v>10172945412.13085</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1584705719937415</v>
+        <v>0.1385274139306345</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1879692967491157</v>
+        <v>0.2006314841925813</v>
       </c>
       <c r="I23" t="n">
-        <v>1.274297311377988</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.077343805990052</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8026022022261059</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.974700238532067</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>7794288361.358389</v>
+        <v>6022515127.230151</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.176434292169341</v>
+        <v>0.2474768229740377</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2466546975570166</v>
+        <v>0.5177631339657978</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3995943273503</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3153889291167583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.79956503359854</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6040590332631576</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.281615631664611</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>5640224659.394687</v>
+        <v>3655791270.094953</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2345282377709336</v>
+        <v>0.3532365976590505</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4364409138204354</v>
+        <v>0.8256103459882165</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08779530618053856</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.938270081425852</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7805301983217333</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.672333885008815</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4778466281.325295</v>
+        <v>5453118341.557313</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2291331476542994</v>
+        <v>0.2838851814754312</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4188157770005307</v>
+        <v>0.6237411553103821</v>
       </c>
       <c r="I26" t="n">
-        <v>1.114343673966525</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.550156951903459</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5279530124422079</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.0089032969407</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5322605517.772059</v>
+        <v>6000422291.407806</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2750981648200189</v>
+        <v>0.2562456199460681</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5689781837372119</v>
+        <v>0.5432874858157336</v>
       </c>
       <c r="I27" t="n">
-        <v>1.490234721883462</v>
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3283305654000112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.252565101740883</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.3557858911107702</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-9.368282923956286</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8174923823.386016</v>
+        <v>8685913659.659834</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1409837724362582</v>
+        <v>0.1743060637399075</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1308419405641607</v>
+        <v>0.3047765395930441</v>
       </c>
       <c r="I28" t="n">
-        <v>1.172993341017394</v>
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.353521968595952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.653422137499864</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5496532537705136</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.339642937910408</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>9583373483.115774</v>
+        <v>4314292336.941011</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1424031101787243</v>
+        <v>0.3752140313115118</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1354787531778164</v>
+        <v>0.8895826047933089</v>
       </c>
       <c r="I29" t="n">
-        <v>1.388930751522869</v>
+        <v>15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9884086576801125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3067335681406017</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.528648223221356</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9048825818279456</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.56900341333755</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>5473779227.787622</v>
+        <v>4951082189.168151</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2813780490417248</v>
+        <v>0.252358773751224</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5894938407935167</v>
+        <v>0.5319735929088466</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07066966446910827</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.694355304954087</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7723199176414873</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.752043047875659</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8270584463.423974</v>
+        <v>11158489012.4168</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1779919165943153</v>
+        <v>0.08802905562813754</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2517432768042017</v>
+        <v>0.0536400702884455</v>
       </c>
       <c r="I31" t="n">
-        <v>1.498232403754036</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.568719925989316</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6498885623803098</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.429051321616878</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6240939420.90015</v>
+        <v>14940801620.20684</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1880304615792512</v>
+        <v>0.06960120724671021</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2845380448261016</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.194320492672256</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.189441546082015</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5555550403921594</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.921659261761174</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6161484232.552912</v>
+        <v>9705748278.256199</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1781266280292433</v>
+        <v>0.1400678619540966</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2521833635164682</v>
+        <v>0.2051154444761639</v>
       </c>
       <c r="I33" t="n">
-        <v>1.117009567923382</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.803531388310313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7934573170702792</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.065614953095272</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8988715626.819841</v>
+        <v>7792760778.107512</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1564864757544512</v>
+        <v>0.1425196270774934</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1814874832992291</v>
+        <v>0.2122520808770967</v>
       </c>
       <c r="I34" t="n">
-        <v>1.431585054832593</v>
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9850988608755744</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2675640798433414</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.136043565117327</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8251699271102115</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.3673549770869</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9803194557.635778</v>
+        <v>8929714374.209</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1266516595891607</v>
+        <v>0.1792271536279422</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0840205818125115</v>
+        <v>0.3191009252742278</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08308591691894888</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4105605781073672</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.561920192062856</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5135764631440669</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.70960907081848</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7598932600.165685</v>
+        <v>9551880986.257277</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2033759451908158</v>
+        <v>0.126967407963403</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3346699689227033</v>
+        <v>0.1669824373921909</v>
       </c>
       <c r="I36" t="n">
-        <v>1.572877434546051</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.750181425901252</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7649650322010697</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.549119218120142</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5911382603.571136</v>
+        <v>6528506642.737906</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2033872768231372</v>
+        <v>0.1516624665001126</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3347069880578316</v>
+        <v>0.2388652013626949</v>
       </c>
       <c r="I37" t="n">
-        <v>1.223645326197691</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.775117146857411</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5995977803747751</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.21683846063809</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>6837560076.559016</v>
+        <v>7726335380.071533</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1566831586127934</v>
+        <v>0.1630691043065147</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1821300235003135</v>
+        <v>0.2720678217134741</v>
       </c>
       <c r="I38" t="n">
-        <v>1.090350628354805</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.790701705092486</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7743915742324904</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.697129779557322</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5939646482.585401</v>
+        <v>10449239814.83071</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1962454421180681</v>
+        <v>0.1436382451352818</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3113754382411038</v>
+        <v>0.2155081718760963</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09324429831045647</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.485044036510571</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8188385925340499</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.891727814170428</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10887918937.12477</v>
+        <v>5356653841.35387</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1279873121803378</v>
+        <v>0.2596576391145815</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08838400469413754</v>
+        <v>0.553219244762103</v>
       </c>
       <c r="I40" t="n">
-        <v>1.418255585048304</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.006396332831148</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7992614003327755</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.978831673824361</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9052182921.665737</v>
+        <v>5975035481.486152</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1414997599014823</v>
+        <v>0.1963982847693688</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1325276120683103</v>
+        <v>0.3690829232966631</v>
       </c>
       <c r="I41" t="n">
-        <v>1.303622144903422</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.856026573645575</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.756897221522947</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.281917856813365</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>7980112376.420116</v>
+        <v>9424103934.876087</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1526314784236664</v>
+        <v>0.1200725806739395</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1688936518846319</v>
+        <v>0.1469128659056869</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08875358747696251</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.807408650122701</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7480643995955457</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.153879341788214</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6655403313.210607</v>
+        <v>10928580592.59804</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1916702669946267</v>
+        <v>0.09060000167547991</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2964288690861132</v>
+        <v>0.06112362039330937</v>
       </c>
       <c r="I43" t="n">
-        <v>1.298290356989707</v>
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9867978953289982</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2108078382794751</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.513527066190454</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8533350172393178</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.5531732785959</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7354786009.563149</v>
+        <v>12512000752.56863</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2047849180168684</v>
+        <v>0.1233072743928079</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3392729205505431</v>
+        <v>0.1563284631501577</v>
       </c>
       <c r="I44" t="n">
-        <v>1.532889025193186</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.172703606312778</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.4837083052993773</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-11.84686971230032</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6418129576.866954</v>
+        <v>9239009230.625694</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.244057898993782</v>
+        <v>0.1066013265508233</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4675732173165684</v>
+        <v>0.1077005279766562</v>
       </c>
       <c r="I45" t="n">
-        <v>1.594204586200913</v>
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9842523096711542</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1872769628432772</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.035746035525021</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8378206339803533</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.72066664408205</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6152477087.620357</v>
+        <v>4203836784.599476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1745556927243073</v>
+        <v>0.3701184750321465</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2405175299596805</v>
+        <v>0.8747503796020403</v>
       </c>
       <c r="I46" t="n">
-        <v>1.093016522311663</v>
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3153128725854056</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.615213041489318</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5673600701079903</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.731988360670488</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7254829930.467641</v>
+        <v>10197782693.60523</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1715009534234249</v>
+        <v>0.1076238279413651</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2305380491793333</v>
+        <v>0.1106768410721109</v>
       </c>
       <c r="I47" t="n">
-        <v>1.266299629507414</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.853742877393618</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7407042337752251</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.960341798110884</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4264400029.230019</v>
+        <v>12647785750.16798</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3593338194110932</v>
+        <v>0.1207408474625464</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8441663465270016</v>
+        <v>0.1488580673622191</v>
       </c>
       <c r="I48" t="n">
-        <v>1.559547964761763</v>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9885959897411046</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2442759895526674</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.466190644633421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8792882847084046</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15.11957504953467</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>6559708669.468817</v>
+        <v>5159392068.2172</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1756985954824924</v>
+        <v>0.2188159137884834</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2442512613801718</v>
+        <v>0.4343365096837498</v>
       </c>
       <c r="I49" t="n">
-        <v>1.172993341017394</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.944649864585093</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7475042142500441</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.005434420415789</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10413082453.71945</v>
+        <v>3711894491.759933</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1330688886944381</v>
+        <v>0.3676565142219194</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1049849287539025</v>
+        <v>0.8675840654358635</v>
       </c>
       <c r="I50" t="n">
-        <v>1.410257903177731</v>
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9876299533022227</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2669694509916694</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.751145555473451</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.867397347708855</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.59680139870365</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5632748777.796892</v>
+        <v>12501156242.407</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2218187033167651</v>
+        <v>0.1076993546751135</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3949203314336183</v>
+        <v>0.1108966854740762</v>
       </c>
       <c r="I51" t="n">
-        <v>1.27163141742113</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.712450686752252</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7910094449275592</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.107738211798932</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6547071156.528693</v>
+        <v>9477067834.360275</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2140458865492183</v>
+        <v>0.1182959687104189</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3695274360338414</v>
+        <v>0.1417414759188564</v>
       </c>
       <c r="I52" t="n">
-        <v>1.426253266918877</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.618087175496727</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7278250302919107</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.938413430341486</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4804122943.236775</v>
+        <v>5022801221.025197</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2480832535057919</v>
+        <v>0.2753519120387786</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4807235859830803</v>
+        <v>0.5989023807069612</v>
       </c>
       <c r="I53" t="n">
-        <v>1.21298175037026</v>
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9886309851229916</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2971300000629796</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.683849200087266</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8609421878102804</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.53499455611834</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9578821906.916183</v>
+        <v>15480790790.48806</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1512213802570152</v>
+        <v>0.1028751787653213</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1642870238989203</v>
+        <v>0.09685439852179813</v>
       </c>
       <c r="I54" t="n">
-        <v>1.474239358142316</v>
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9900612942586277</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3030832669404825</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.524997922021237</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8984541402115028</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.44408488220882</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9521986881.989429</v>
+        <v>10806349663.88966</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1559752337833192</v>
+        <v>0.1224087680986506</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1798173147766501</v>
+        <v>0.1537130769273264</v>
       </c>
       <c r="I55" t="n">
-        <v>1.511561873538324</v>
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9867575700769452</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3103756643516292</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.905012983847701</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8668216891411287</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.43142079897487</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>6413550594.833905</v>
+        <v>9259164814.173796</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2393311656785568</v>
+        <v>0.135224768662002</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.452131525038772</v>
+        <v>0.1910180925105769</v>
       </c>
       <c r="I56" t="n">
-        <v>1.562213858718621</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.876050789954686</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.772839047284023</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.580730155725774</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5201014770.976223</v>
+        <v>9591580869.793299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2100139449892351</v>
+        <v>0.1026828270928424</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3563555482417434</v>
+        <v>0.09629449825464211</v>
       </c>
       <c r="I57" t="n">
-        <v>1.111677780009667</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.328710596690742</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6951164901885637</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.573619207080531</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>8357889930.896427</v>
+        <v>8957325017.707439</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1363304206469479</v>
+        <v>0.1807217017133889</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1156399772633308</v>
+        <v>0.3234512792978489</v>
       </c>
       <c r="I58" t="n">
-        <v>1.159663871233106</v>
+        <v>13</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4666436742564349</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.853362874280721</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6201161217931263</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.548959561581803</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>5544143502.451126</v>
+        <v>7052912752.452169</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2456795714969875</v>
+        <v>0.2239489166303439</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4728710342442131</v>
+        <v>0.4492777349168423</v>
       </c>
       <c r="I59" t="n">
-        <v>1.386264857566011</v>
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9900068419795227</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4353981816677318</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.657312836748486</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8947989065335802</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15.23866529392312</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>9600281627.899052</v>
+        <v>11659916730.52494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1598872407596146</v>
+        <v>0.0871638574690099</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1925973901242408</v>
+        <v>0.0511216379078202</v>
       </c>
       <c r="I60" t="n">
-        <v>1.562213858718621</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.646832207616793</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7224283721553161</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.801735235489529</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9119997311.831839</v>
+        <v>5471299993.933958</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160344157807042</v>
+        <v>0.1833616089617238</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04933527151577139</v>
+        <v>0.331135562748888</v>
       </c>
       <c r="I61" t="n">
-        <v>1.077021158570517</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.68517978802406</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7193776714219325</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.70237364041459</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>9090515885.978712</v>
+        <v>12569832952.65454</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1656835837362209</v>
+        <v>0.1212812442092203</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2115333737332624</v>
+        <v>0.150431062693809</v>
       </c>
       <c r="I62" t="n">
-        <v>1.532889025193186</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.31816723069881</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.822894441644376</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.139721602188709</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>10123022734.0829</v>
+        <v>10076959310.97796</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1451619569175182</v>
+        <v>0.1549233644616644</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1444915871036985</v>
+        <v>0.2483570743280367</v>
       </c>
       <c r="I63" t="n">
-        <v>1.495566509797178</v>
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.52131875608812</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.908037956112406</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6003139318817974</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.098240681523542</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>10746899008.21088</v>
+        <v>10153578398.98324</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1272294062645731</v>
+        <v>0.1227970663155421</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.08590801352935946</v>
+        <v>0.154843341471283</v>
       </c>
       <c r="I64" t="n">
-        <v>1.391596645479727</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.99019940135855</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.771799972519311</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.445800049027669</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>7533502452.074568</v>
+        <v>8773799653.45915</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1602891613405487</v>
+        <v>0.1143434326773656</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1939104182806861</v>
+        <v>0.1302363719999274</v>
       </c>
       <c r="I65" t="n">
-        <v>1.228977114111406</v>
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.985558989303592</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.05705075758830915</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.905519830270053</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8441158216588801</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.97679660290755</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>9198323136.067074</v>
+        <v>3466414105.152755</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1338410579611782</v>
+        <v>0.3513764694730047</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1075075166403325</v>
+        <v>0.820195855670097</v>
       </c>
       <c r="I66" t="n">
-        <v>1.252970159723126</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.165962391974313</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7660258489929191</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.15455458788407</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4757053341.861612</v>
+        <v>8713632713.505777</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2527404936623004</v>
+        <v>0.1157341815012377</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4959382521308308</v>
+        <v>0.1342845855038576</v>
       </c>
       <c r="I67" t="n">
-        <v>1.223645326197691</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.438799571671923</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5759923959542574</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.081048347413226</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>5880444176.744825</v>
+        <v>9298083063.562416</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1986666151206786</v>
+        <v>0.1445187207743834</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3192851310382821</v>
+        <v>0.2180710741852054</v>
       </c>
       <c r="I68" t="n">
-        <v>1.188988704758541</v>
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9854158476150265</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3082264435304135</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.902863763026486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8724975976167459</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.54708818930844</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>9791332734.730434</v>
+        <v>11203966996.01365</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1455315837593411</v>
+        <v>0.1098819106159477</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1456991153411509</v>
+        <v>0.1172497035612449</v>
       </c>
       <c r="I69" t="n">
-        <v>1.450246312530597</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.686580097957133</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7686630007680058</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.686679917402982</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5152239684.018472</v>
+        <v>7770250602.815948</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2577579482801171</v>
+        <v>0.135853297912611</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5123296973550768</v>
+        <v>0.1928476253178356</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0884050470310991</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.671333674164581</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7314046308584092</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.956758943003605</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>7428944246.477327</v>
+        <v>5675888153.367292</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1470310711401479</v>
+        <v>0.2644362308495395</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1505977675740312</v>
+        <v>0.5671288445828435</v>
       </c>
       <c r="I71" t="n">
-        <v>1.111677780009667</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.483545440192657</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8188385925340499</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.893226410488342</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>7848629860.01083</v>
+        <v>10794760208.67281</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1558558820861903</v>
+        <v>0.1290918420661546</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1794274065552657</v>
+        <v>0.1731662735208631</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07616033477158604</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.924189066284979</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7997406540644023</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.070624015003068</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7567110469.876805</v>
+        <v>8085248450.038401</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1761926848177368</v>
+        <v>0.1849877216813166</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2458653942207129</v>
+        <v>0.3358688771744508</v>
       </c>
       <c r="I73" t="n">
-        <v>1.356940024040577</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.877653183390394</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5757845445956021</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.638037708521647</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>10504619511.04855</v>
+        <v>4372377862.72702</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11295827219177</v>
+        <v>0.2324417861191271</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.03928586539640485</v>
+        <v>0.4739989127179394</v>
       </c>
       <c r="I74" t="n">
-        <v>1.207649962456545</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.137588246670184</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6821951889966335</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.506315533262486</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6572702910.543243</v>
+        <v>9870601417.195652</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2263625087349384</v>
+        <v>0.1050876634723543</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4097644193815488</v>
+        <v>0.1032945337313416</v>
       </c>
       <c r="I75" t="n">
-        <v>1.514227767495182</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.778132135733639</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7272478688773854</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.766825241814068</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>8205806696.921291</v>
+        <v>10255103682.23867</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1417300215512444</v>
+        <v>0.1540201073476811</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1332798503059852</v>
+        <v>0.2457278593442933</v>
       </c>
       <c r="I76" t="n">
-        <v>0.09125194726139306</v>
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9888118498262153</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2685989059029247</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.568499074806836</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9055524750022617</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15.5425504252384</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>10995867144.73778</v>
+        <v>5548966906.129658</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1238722496435256</v>
+        <v>0.2166709642243282</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07494057026286492</v>
+        <v>0.4280929568280394</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09727826597927897</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.742877636322769</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7628330402599303</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.513783168875836</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>6744236646.20487</v>
+        <v>10013445363.48036</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1856501314651476</v>
+        <v>0.119806977164454</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2767617810324229</v>
+        <v>0.1461397430417057</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06220072334731677</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.668725708718853</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7622978643007255</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.577231577295658</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>8409480354.653652</v>
+        <v>9518093592.740814</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323792556794491</v>
+        <v>0.1466821960087463</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1027319772772942</v>
+        <v>0.2243685518525112</v>
       </c>
       <c r="I79" t="n">
-        <v>1.133004931664529</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.970611781758313</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8002192386021414</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.033772990284513</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>5624831719.751246</v>
+        <v>12644892951.64769</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2151456684029506</v>
+        <v>0.1164183188919902</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3731202964356197</v>
+        <v>0.1362759833581998</v>
       </c>
       <c r="I80" t="n">
-        <v>1.231643008068264</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.127394342438903</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8138169032791165</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.148943723143427</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7021840872.711243</v>
+        <v>8239703336.47563</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1581666944798155</v>
+        <v>0.1230267509162037</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1869765639784572</v>
+        <v>0.1555119110117228</v>
       </c>
       <c r="I81" t="n">
-        <v>1.130339037707671</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.459129669819182</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5780438594871987</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.101747519924793</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>7000333038.124222</v>
+        <v>10258117053.5863</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1638911768556977</v>
+        <v>0.1266526237917889</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2056777872975962</v>
+        <v>0.1660661586850094</v>
       </c>
       <c r="I82" t="n">
-        <v>0.08620358071561102</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.888773171692874</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5620758023029567</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.35274287436626</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9210564829.782976</v>
+        <v>5025704084.7771</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242783098707065</v>
+        <v>0.2960408123722604</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07626712216588477</v>
+        <v>0.6591239565040077</v>
       </c>
       <c r="I83" t="n">
-        <v>1.164995659146821</v>
+        <v>17</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3853479951347295</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.472473389729204</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.3758485058688794</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.044496727648383</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>3759731783.186531</v>
+        <v>4399952422.508928</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.366462082790453</v>
+        <v>0.3601700195422475</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8674535603887626</v>
+        <v>0.8457922592238912</v>
       </c>
       <c r="I84" t="n">
-        <v>1.402260221307158</v>
+        <v>24</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.991219409960727</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.389498385734931</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.146076154875581</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7767592597616626</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.38910904035767</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>3883771512.475002</v>
+        <v>10076141886.0117</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.325756900460334</v>
+        <v>0.1247806168495372</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7344744270772514</v>
+        <v>0.160617091496892</v>
       </c>
       <c r="I85" t="n">
-        <v>1.287626781162276</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.695634447333807</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7738748725082574</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.78186300283134</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>6402374273.189384</v>
+        <v>6254911812.135836</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2102917453042462</v>
+        <v>0.2466574679768635</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3572630898128444</v>
+        <v>0.5153781425804818</v>
       </c>
       <c r="I86" t="n">
-        <v>1.370269493824865</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.797779323809293</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.5936821397493413</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9.075863471177531</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9226078787.633751</v>
+        <v>11220283555.74676</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1178232784503241</v>
+        <v>0.1386700837166541</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05517927942341701</v>
+        <v>0.2010467696448884</v>
       </c>
       <c r="I87" t="n">
-        <v>1.106345992095952</v>
+        <v>16</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9898911649114969</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2967861507735109</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.448145764729</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8763031795223566</v>
+      </c>
+      <c r="N87" t="n">
+        <v>15.07791782571813</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7971789711.945053</v>
+        <v>4768946764.612147</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1475335090986788</v>
+        <v>0.2427727624454118</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1522391744034221</v>
+        <v>0.5040704807501948</v>
       </c>
       <c r="I88" t="n">
-        <v>1.196986386629114</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.853456084329117</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.753613184257201</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.218807600814904</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>10011483634.16096</v>
+        <v>10362025375.6749</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1331740188288024</v>
+        <v>0.1461111476868382</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1053283767708972</v>
+        <v>0.2227063354346619</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1200417952894077</v>
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9897234870089487</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3560984690910145</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.742817669115301</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8992829635523815</v>
+      </c>
+      <c r="N89" t="n">
+        <v>15.24284160193233</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5042218041.573867</v>
+        <v>3533538770.007385</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2368881770188521</v>
+        <v>0.3194975811734593</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4441505630073845</v>
+        <v>0.7274022872777857</v>
       </c>
       <c r="I90" t="n">
-        <v>1.215647644327118</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.121099301190764</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7475042142500441</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.828984983810118</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>10026665134.35415</v>
+        <v>8911355703.200861</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1256575913444183</v>
+        <v>0.1334480520817782</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.08077307557199677</v>
+        <v>0.1858463980038053</v>
       </c>
       <c r="I91" t="n">
-        <v>1.282294993248561</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.643226182678324</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7601483440035256</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.559740697392188</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>8409593757.602762</v>
+        <v>9474045561.986946</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1710005443128479</v>
+        <v>0.1047861553445808</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2289032703620798</v>
+        <v>0.1024168991409349</v>
       </c>
       <c r="I92" t="n">
-        <v>1.463575782314885</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.642019809570945</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6005339308109806</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8.368658806648668</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>10753094962.8439</v>
+        <v>9308501909.803234</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1171687401955933</v>
+        <v>0.1114334454728523</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05304097847865173</v>
+        <v>0.1217659355736167</v>
       </c>
       <c r="I93" t="n">
-        <v>0.08612348238225623</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>9.026808347929123</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7272478688773854</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.518149029618584</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>5887468676.391647</v>
+        <v>8567000345.831201</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2019888555447648</v>
+        <v>0.1565457716658793</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3301385071186186</v>
+        <v>0.2530796026812805</v>
       </c>
       <c r="I94" t="n">
-        <v>1.210315856413402</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.086611867864638</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7900253284625582</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.713894701386527</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6499135705.831251</v>
+        <v>8612162223.647404</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2349703774657034</v>
+        <v>0.1532916503099594</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4378853331805128</v>
+        <v>0.243607455165969</v>
       </c>
       <c r="I95" t="n">
-        <v>1.554216176848048</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.073194389707764</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7860599699336032</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.648005008964299</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>4166106643.783011</v>
+        <v>13048171520.36581</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3740991729834306</v>
+        <v>0.1160321519100904</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8924030527322117</v>
+        <v>0.1351519224465058</v>
       </c>
       <c r="I96" t="n">
-        <v>1.58620690433034</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.587117500056964</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.5496532537705136</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.405947575353307</v>
       </c>
     </row>
     <row r="97">
@@ -3430,16 +4880,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>3854742998.926887</v>
+        <v>3677248743.416665</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4070348167016049</v>
+        <v>0.4131475203356555</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3448,7 +4898,22 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1.596870480157771</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.476467860577363</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.4063280303501727</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5.650092746426092</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5123774716.677395</v>
+        <v>6613414540.53814</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2085788659914043</v>
+        <v>0.1675385632048767</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3516673107633452</v>
+        <v>0.2850775928216998</v>
       </c>
       <c r="I98" t="n">
-        <v>0.05991515174022188</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.732484025462425</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7429870507466937</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.12725698947145</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>5088006355.518005</v>
+        <v>11759621501.41833</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2743972338961162</v>
+        <v>0.09288442063107719</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5666883232959568</v>
+        <v>0.06777314294256122</v>
       </c>
       <c r="I99" t="n">
-        <v>0.08501618957242721</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.799590168426132</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7395566427078716</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.9915426857313</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>10781618043.30927</v>
+        <v>8307352881.708587</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1081125806272976</v>
+        <v>0.1582855331564482</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02345555024604995</v>
+        <v>0.2581437277330854</v>
       </c>
       <c r="I100" t="n">
-        <v>1.186322810801683</v>
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9891053722037949</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2094190940617202</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.596138294086006</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8398066522221356</v>
+      </c>
+      <c r="N100" t="n">
+        <v>14.1999947503567</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>6105517987.985819</v>
+        <v>5206038973.456041</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2784340515162116</v>
+        <v>0.3038992923538779</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5798761406137463</v>
+        <v>0.6819985433710859</v>
       </c>
       <c r="I101" t="n">
-        <v>1.730165178000657</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.6058972067579</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5437978719140522</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.270060231523143</v>
       </c>
     </row>
   </sheetData>
